--- a/data/pca/factorExposure/factorExposure_2013-03-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-03-26.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>5.871148629948827e-06</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001945954599080287</v>
+      </c>
+      <c r="C2">
+        <v>-0.03318031694787667</v>
+      </c>
+      <c r="D2">
+        <v>-0.001329907160332102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001611125185388854</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.005986406006314341</v>
+      </c>
+      <c r="C4">
+        <v>-0.08542751026277391</v>
+      </c>
+      <c r="D4">
+        <v>0.07962214209572813</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0004417849341560057</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01355131244777728</v>
+      </c>
+      <c r="C6">
+        <v>-0.1130206132754034</v>
+      </c>
+      <c r="D6">
+        <v>0.03056975534688736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.00184273554714189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004692830551160248</v>
+      </c>
+      <c r="C7">
+        <v>-0.05602416150018336</v>
+      </c>
+      <c r="D7">
+        <v>0.03087777169233946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0002564848860934911</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005666852757402607</v>
+      </c>
+      <c r="C8">
+        <v>-0.03875598076472586</v>
+      </c>
+      <c r="D8">
+        <v>0.04001387419983145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003633125409109083</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004062663168893975</v>
+      </c>
+      <c r="C9">
+        <v>-0.07144195953530204</v>
+      </c>
+      <c r="D9">
+        <v>0.0710251827592711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004618747436787665</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005238953165209697</v>
+      </c>
+      <c r="C10">
+        <v>-0.05891780686719383</v>
+      </c>
+      <c r="D10">
+        <v>-0.2040018643899622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.002573448373951589</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005314548353789392</v>
+      </c>
+      <c r="C11">
+        <v>-0.08120545693935904</v>
+      </c>
+      <c r="D11">
+        <v>0.05828774619040827</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0003381448544859403</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.003923497600099186</v>
+      </c>
+      <c r="C12">
+        <v>-0.06491801830932836</v>
+      </c>
+      <c r="D12">
+        <v>0.04449684587261265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.003617941479247131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008479868962407355</v>
+      </c>
+      <c r="C13">
+        <v>-0.06689090695541133</v>
+      </c>
+      <c r="D13">
+        <v>0.06626697557705728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.001036243602936313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001370235042593362</v>
+      </c>
+      <c r="C14">
+        <v>-0.04575872882188676</v>
+      </c>
+      <c r="D14">
+        <v>0.008592011276455728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0009955448650706641</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005820013217539926</v>
+      </c>
+      <c r="C15">
+        <v>-0.04175729175071217</v>
+      </c>
+      <c r="D15">
+        <v>0.03150484256289771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.001200958729860547</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004924868428491639</v>
+      </c>
+      <c r="C16">
+        <v>-0.06677617667368536</v>
+      </c>
+      <c r="D16">
+        <v>0.04449837898309349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0003026011740861036</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008796434710835669</v>
+      </c>
+      <c r="C20">
+        <v>-0.06817641270039607</v>
+      </c>
+      <c r="D20">
+        <v>0.04814095092789417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005378431404402128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009796435874184189</v>
+      </c>
+      <c r="C21">
+        <v>-0.02321892462622256</v>
+      </c>
+      <c r="D21">
+        <v>0.03616824746211138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01796998384552696</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006970265667755591</v>
+      </c>
+      <c r="C22">
+        <v>-0.09471431280403414</v>
+      </c>
+      <c r="D22">
+        <v>0.1016087159172931</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01829047746508385</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006785129618055624</v>
+      </c>
+      <c r="C23">
+        <v>-0.09559378305599747</v>
+      </c>
+      <c r="D23">
+        <v>0.101976909773367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.00180597138288687</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005047724972607887</v>
+      </c>
+      <c r="C24">
+        <v>-0.07602723611260019</v>
+      </c>
+      <c r="D24">
+        <v>0.05732420283834069</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.003608199037077098</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.002743571727197737</v>
+      </c>
+      <c r="C25">
+        <v>-0.07889889744492307</v>
+      </c>
+      <c r="D25">
+        <v>0.06396677391486452</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.005863032800040792</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003477259651847094</v>
+      </c>
+      <c r="C26">
+        <v>-0.04218596650252641</v>
+      </c>
+      <c r="D26">
+        <v>0.02622960533984069</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.004206598023690446</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.00109804034454525</v>
+      </c>
+      <c r="C28">
+        <v>-0.1068072013715786</v>
+      </c>
+      <c r="D28">
+        <v>-0.3188550718363853</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.0008485677695268494</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002962221509313045</v>
+      </c>
+      <c r="C29">
+        <v>-0.04888829529020459</v>
+      </c>
+      <c r="D29">
+        <v>0.002771091619380763</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.003049106461237667</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.00895376184528583</v>
+      </c>
+      <c r="C30">
+        <v>-0.1455259486283198</v>
+      </c>
+      <c r="D30">
+        <v>0.09973311700578093</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0003349468187918588</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006066414867193912</v>
+      </c>
+      <c r="C31">
+        <v>-0.04558922223489689</v>
+      </c>
+      <c r="D31">
+        <v>0.03182063051081077</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0005969027426742092</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003843664075788863</v>
+      </c>
+      <c r="C32">
+        <v>-0.04030548614040799</v>
+      </c>
+      <c r="D32">
+        <v>0.02408237029756757</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.002736631112616504</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.007942948675822323</v>
+      </c>
+      <c r="C33">
+        <v>-0.08735633677593109</v>
+      </c>
+      <c r="D33">
+        <v>0.07081760087552452</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004285260522665511</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003734392035384147</v>
+      </c>
+      <c r="C34">
+        <v>-0.05876943549939801</v>
+      </c>
+      <c r="D34">
+        <v>0.04652942429474067</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.00245189857958947</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004701197242516258</v>
+      </c>
+      <c r="C35">
+        <v>-0.03961940841254864</v>
+      </c>
+      <c r="D35">
+        <v>0.01288899094133872</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.003968058539067522</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001389424283127854</v>
+      </c>
+      <c r="C36">
+        <v>-0.02525959011627792</v>
+      </c>
+      <c r="D36">
+        <v>0.02112203629003501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002333923815903272</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009427135494072149</v>
+      </c>
+      <c r="C38">
+        <v>-0.03404246701461579</v>
+      </c>
+      <c r="D38">
+        <v>0.02142219173803574</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01233578180034696</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001027333005196402</v>
+      </c>
+      <c r="C39">
+        <v>-0.1179631141716358</v>
+      </c>
+      <c r="D39">
+        <v>0.07158064444890203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009359389865342621</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002006506787834514</v>
+      </c>
+      <c r="C40">
+        <v>-0.08869472152882577</v>
+      </c>
+      <c r="D40">
+        <v>0.01013471552923683</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0002628609894123838</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007136949547457467</v>
+      </c>
+      <c r="C41">
+        <v>-0.03793772915000634</v>
+      </c>
+      <c r="D41">
+        <v>0.0350310764710282</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003129939456358224</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003506831798624313</v>
+      </c>
+      <c r="C43">
+        <v>-0.05184752936082029</v>
+      </c>
+      <c r="D43">
+        <v>0.02355795061145357</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.00263420554152103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003075249960821366</v>
+      </c>
+      <c r="C44">
+        <v>-0.1128626648321813</v>
+      </c>
+      <c r="D44">
+        <v>0.06989334086534317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.001529188089718352</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002291452304064549</v>
+      </c>
+      <c r="C46">
+        <v>-0.03595171819350065</v>
+      </c>
+      <c r="D46">
+        <v>0.02696523456185173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0001931795008278179</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002652324826737379</v>
+      </c>
+      <c r="C47">
+        <v>-0.03770825014391251</v>
+      </c>
+      <c r="D47">
+        <v>0.02555263478866087</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003258630527454509</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006373229804361407</v>
+      </c>
+      <c r="C48">
+        <v>-0.02956140250002586</v>
+      </c>
+      <c r="D48">
+        <v>0.03168648086310397</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01301237306659852</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01454219894844436</v>
+      </c>
+      <c r="C49">
+        <v>-0.1823972112140989</v>
+      </c>
+      <c r="D49">
+        <v>0.0112569350995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001312705494093393</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003498008093480636</v>
+      </c>
+      <c r="C50">
+        <v>-0.04414709564284865</v>
+      </c>
+      <c r="D50">
+        <v>0.03488165560896202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.000368835054355619</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004302775345605464</v>
+      </c>
+      <c r="C51">
+        <v>-0.02528455806552858</v>
+      </c>
+      <c r="D51">
+        <v>0.02129987290475917</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.001179862475915736</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.0201647232258961</v>
+      </c>
+      <c r="C53">
+        <v>-0.1694946143237139</v>
+      </c>
+      <c r="D53">
+        <v>0.03462357095181215</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.00107372616417007</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008658421425178156</v>
+      </c>
+      <c r="C54">
+        <v>-0.05635248661382052</v>
+      </c>
+      <c r="D54">
+        <v>0.04177995971640001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.003420847847816288</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009282256162569018</v>
+      </c>
+      <c r="C55">
+        <v>-0.1104073030416515</v>
+      </c>
+      <c r="D55">
+        <v>0.04359941937850002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.003794430536837763</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.01971202339015551</v>
+      </c>
+      <c r="C56">
+        <v>-0.1764788345918838</v>
+      </c>
+      <c r="D56">
+        <v>0.03653131222908056</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.006918704769979639</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01924540259351006</v>
+      </c>
+      <c r="C58">
+        <v>-0.1081931319798745</v>
+      </c>
+      <c r="D58">
+        <v>0.05354436055917704</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.006065159462806443</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009058726547287748</v>
+      </c>
+      <c r="C59">
+        <v>-0.1580339776059341</v>
+      </c>
+      <c r="D59">
+        <v>-0.3053547958476059</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.00361408490275058</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02324282738324543</v>
+      </c>
+      <c r="C60">
+        <v>-0.2234220271083067</v>
+      </c>
+      <c r="D60">
+        <v>0.02290285367981975</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01426638894364128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002076578007396438</v>
+      </c>
+      <c r="C61">
+        <v>-0.09612564226984958</v>
+      </c>
+      <c r="D61">
+        <v>0.05672690149316677</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1701044361346686</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1440836074134582</v>
+      </c>
+      <c r="C62">
+        <v>-0.08881697625862178</v>
+      </c>
+      <c r="D62">
+        <v>0.04505376845399554</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0008123992428527843</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.00615708624305756</v>
+      </c>
+      <c r="C63">
+        <v>-0.05697178216755483</v>
+      </c>
+      <c r="D63">
+        <v>0.025557429613065</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.004759773822656109</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01477566824175403</v>
+      </c>
+      <c r="C64">
+        <v>-0.1052510834165557</v>
+      </c>
+      <c r="D64">
+        <v>0.05866445071260646</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.002617485039034229</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01722179129340012</v>
+      </c>
+      <c r="C65">
+        <v>-0.1208553910652723</v>
+      </c>
+      <c r="D65">
+        <v>0.01525522959769914</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007417741407530559</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01229752685735295</v>
+      </c>
+      <c r="C66">
+        <v>-0.1604128558291479</v>
+      </c>
+      <c r="D66">
+        <v>0.1105795628755899</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003855205360323038</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01548759328083387</v>
+      </c>
+      <c r="C67">
+        <v>-0.06481632190172944</v>
+      </c>
+      <c r="D67">
+        <v>0.0299395085700293</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.006081269468235099</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0005443124730561931</v>
+      </c>
+      <c r="C68">
+        <v>-0.08667097104894786</v>
+      </c>
+      <c r="D68">
+        <v>-0.2511003072791759</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002897773596523527</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.00587168917102762</v>
+      </c>
+      <c r="C69">
+        <v>-0.05139753459013115</v>
+      </c>
+      <c r="D69">
+        <v>0.03807089680336501</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-7.993522319927264e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001824244866917039</v>
+      </c>
+      <c r="C70">
+        <v>-0.002840520508229032</v>
+      </c>
+      <c r="D70">
+        <v>0.0004135479561495302</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0002450423031184878</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005761877530162665</v>
+      </c>
+      <c r="C71">
+        <v>-0.0969636344546245</v>
+      </c>
+      <c r="D71">
+        <v>-0.2978223862592825</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.004593252504837528</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01542247876338029</v>
+      </c>
+      <c r="C72">
+        <v>-0.1498126585460893</v>
+      </c>
+      <c r="D72">
+        <v>0.02215213721766737</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01181269424335401</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.02923713810581433</v>
+      </c>
+      <c r="C73">
+        <v>-0.2767809059147346</v>
+      </c>
+      <c r="D73">
+        <v>0.04805704149323485</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.004371593866726013</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001314288254545739</v>
+      </c>
+      <c r="C74">
+        <v>-0.1054648881546626</v>
+      </c>
+      <c r="D74">
+        <v>0.03682975998377649</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.002151470902791992</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01067691671524373</v>
+      </c>
+      <c r="C75">
+        <v>-0.1309991345179379</v>
+      </c>
+      <c r="D75">
+        <v>0.0236229569544939</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.009665296129071309</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02119166404119377</v>
+      </c>
+      <c r="C76">
+        <v>-0.1512828965769928</v>
+      </c>
+      <c r="D76">
+        <v>0.06298848959770639</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.001455078778982454</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02403588317993189</v>
+      </c>
+      <c r="C77">
+        <v>-0.1344939763301618</v>
+      </c>
+      <c r="D77">
+        <v>0.05824822179518382</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0008504228872032806</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01423854049803427</v>
+      </c>
+      <c r="C78">
+        <v>-0.0957050890933709</v>
+      </c>
+      <c r="D78">
+        <v>0.06769914681067417</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02465476344061087</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03693709959031644</v>
+      </c>
+      <c r="C79">
+        <v>-0.1572671777250015</v>
+      </c>
+      <c r="D79">
+        <v>0.03147736467973499</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.004779467617571165</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01049470003172847</v>
+      </c>
+      <c r="C80">
+        <v>-0.04314906699649265</v>
+      </c>
+      <c r="D80">
+        <v>0.03007831645835337</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0008304216280426015</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01465209128501804</v>
+      </c>
+      <c r="C81">
+        <v>-0.1287871373651123</v>
+      </c>
+      <c r="D81">
+        <v>0.04261472808022744</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.005822858069251546</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.0195341683727309</v>
+      </c>
+      <c r="C82">
+        <v>-0.1457251691252592</v>
+      </c>
+      <c r="D82">
+        <v>0.03956046375395521</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.009057746064021589</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.009971197045375484</v>
+      </c>
+      <c r="C83">
+        <v>-0.05761229750210875</v>
+      </c>
+      <c r="D83">
+        <v>0.05237709587203485</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01282597573086028</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01160893210288559</v>
+      </c>
+      <c r="C84">
+        <v>-0.03838243602174137</v>
+      </c>
+      <c r="D84">
+        <v>-0.0108654708509261</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.0159013197668709</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02777182789995639</v>
+      </c>
+      <c r="C85">
+        <v>-0.1306522606297103</v>
+      </c>
+      <c r="D85">
+        <v>0.04457622638221796</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.0008782843388711538</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005295654296698237</v>
+      </c>
+      <c r="C86">
+        <v>-0.04885860291938218</v>
+      </c>
+      <c r="D86">
+        <v>0.02129070645238805</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.004952532786887643</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01027663863541674</v>
+      </c>
+      <c r="C87">
+        <v>-0.1337026810164699</v>
+      </c>
+      <c r="D87">
+        <v>0.06434116502171956</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01297320322006212</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003054041035599459</v>
+      </c>
+      <c r="C88">
+        <v>-0.06771304900410891</v>
+      </c>
+      <c r="D88">
+        <v>0.009242255046068466</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01421389186318069</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001895556359542573</v>
+      </c>
+      <c r="C89">
+        <v>-0.1442737941483953</v>
+      </c>
+      <c r="D89">
+        <v>-0.3527263058759644</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.002229454236543371</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006716229015222197</v>
+      </c>
+      <c r="C90">
+        <v>-0.1206539675251133</v>
+      </c>
+      <c r="D90">
+        <v>-0.322678830088701</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.001209723082652923</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01015998330005692</v>
+      </c>
+      <c r="C91">
+        <v>-0.1033811063336877</v>
+      </c>
+      <c r="D91">
+        <v>0.02155742925629681</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.008128128642962669</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0002556806548928835</v>
+      </c>
+      <c r="C92">
+        <v>-0.1336661860650282</v>
+      </c>
+      <c r="D92">
+        <v>-0.3344766888491287</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>2.803530883755102e-05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004641211580650051</v>
+      </c>
+      <c r="C93">
+        <v>-0.1044361700420068</v>
+      </c>
+      <c r="D93">
+        <v>-0.3167457348908692</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.004506607786837015</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.0222518349458003</v>
+      </c>
+      <c r="C94">
+        <v>-0.1541910444152637</v>
+      </c>
+      <c r="D94">
+        <v>0.04617798780099396</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.004577127720978817</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01605488237344567</v>
+      </c>
+      <c r="C95">
+        <v>-0.1279547175107913</v>
+      </c>
+      <c r="D95">
+        <v>0.06205459579269688</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001522352900482659</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.034026768137599</v>
+      </c>
+      <c r="C97">
+        <v>-0.19150586510126</v>
+      </c>
+      <c r="D97">
+        <v>0.005424027722953923</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.003747845928181103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03570659608337016</v>
+      </c>
+      <c r="C98">
+        <v>-0.247311824575818</v>
+      </c>
+      <c r="D98">
+        <v>0.05099694129957749</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9835111147595292</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9827163739931386</v>
+      </c>
+      <c r="C99">
+        <v>0.1119250732143059</v>
+      </c>
+      <c r="D99">
+        <v>-0.02709974485710088</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.0008010465720378099</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003007273270812454</v>
+      </c>
+      <c r="C101">
+        <v>-0.04891946087398152</v>
+      </c>
+      <c r="D101">
+        <v>0.003241889071456241</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
